--- a/Intensity.xlsx
+++ b/Intensity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITG\IITG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB83C71-D86E-4783-9589-2C93F5C96DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDBA3A0-DF60-40D3-ABAE-59726DE32958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1479B8EC-1F67-4909-9034-ED3E5074BB1E}"/>
   </bookViews>
@@ -416,7 +416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125D1291-BFBC-45FA-AF0C-941A2198B4FA}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -433,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>7830000000</v>
+        <v>5005000000</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -442,7 +444,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>2337000000</v>
+        <v>1332000000</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -451,7 +453,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="1">
-        <v>2371000000</v>
+        <v>1330000000</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -460,7 +462,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="1">
-        <v>2258000000</v>
+        <v>1444000000</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -469,7 +471,7 @@
         <v>250</v>
       </c>
       <c r="B6" s="1">
-        <v>2532000000</v>
+        <v>1509000000</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -478,7 +480,7 @@
         <v>500</v>
       </c>
       <c r="B7" s="1">
-        <v>2662000000</v>
+        <v>1601000000</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -487,7 +489,7 @@
         <v>750</v>
       </c>
       <c r="B8" s="1">
-        <v>2616000000</v>
+        <v>1601000000</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -496,7 +498,7 @@
         <v>750</v>
       </c>
       <c r="B9" s="1">
-        <v>2614000000</v>
+        <v>1574000000</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -505,7 +507,7 @@
         <v>1000</v>
       </c>
       <c r="B10" s="1">
-        <v>2596000000</v>
+        <v>1580000000</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -514,7 +516,7 @@
         <v>1250</v>
       </c>
       <c r="B11" s="1">
-        <v>2653000000</v>
+        <v>1595000000</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -523,7 +525,7 @@
         <v>1500</v>
       </c>
       <c r="B12" s="1">
-        <v>2639000000</v>
+        <v>1612000000</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -532,7 +534,7 @@
         <v>2000</v>
       </c>
       <c r="B13" s="1">
-        <v>2602000000</v>
+        <v>1567000000</v>
       </c>
       <c r="C13" s="1"/>
     </row>
